--- a/target/test-classes/testdata/testdata.xlsx
+++ b/target/test-classes/testdata/testdata.xlsx
@@ -4,22 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15225" windowHeight="2730"/>
+    <workbookView windowWidth="11925" windowHeight="2730"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Url</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -31,18 +41,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -55,7 +58,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,113 +178,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,25 +194,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,157 +356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +398,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -391,7 +416,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,6 +432,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,30 +478,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -480,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -498,136 +514,145 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -948,10 +973,84 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AM2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="67.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="16.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="21.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
